--- a/src/test/resources/random.xlsx
+++ b/src/test/resources/random.xlsx
@@ -5,104 +5,138 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+  <si>
+    <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
+  </si>
+  <si>
+    <t>Numbers Sheet Name</t>
+  </si>
+  <si>
+    <t>Numbers Table Name</t>
+  </si>
+  <si>
+    <t>Excel Worksheet Name</t>
+  </si>
+  <si>
+    <t>Sheet1</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
   <si>
     <t>TC</t>
   </si>
   <si>
-    <t>browser</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>isFTE</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>phonenumber</t>
-  </si>
-  <si>
-    <t>list</t>
-  </si>
-  <si>
-    <t>testcase1</t>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Next Check</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Should Run</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Tech Stack</t>
+  </si>
+  <si>
+    <t>test1</t>
   </si>
   <si>
     <t>chrome</t>
   </si>
   <si>
-    <t>abcd</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>9876543210</t>
   </si>
   <si>
     <t>selenium,appium,restassured</t>
   </si>
   <si>
+    <t>test2</t>
+  </si>
+  <si>
     <t>edge</t>
   </si>
   <si>
-    <t>dfgdg</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>+919876543210</t>
   </si>
   <si>
     <t>docker,k8s,openshift</t>
   </si>
   <si>
-    <t>testcase2</t>
-  </si>
-  <si>
-    <t>efgh</t>
-  </si>
-  <si>
-    <t>21</t>
+    <t>test3</t>
   </si>
   <si>
     <t>postman,soapui</t>
   </si>
   <si>
-    <t>testcase3</t>
-  </si>
-  <si>
-    <t>ijkl</t>
-  </si>
-  <si>
-    <t>22</t>
+    <t>test4</t>
   </si>
   <si>
     <t>automation,performance,security</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>chromium</t>
+  </si>
+  <si>
+    <t>8291239893</t>
+  </si>
+  <si>
+    <t>allure,testng,java,gradle</t>
+  </si>
+  <si>
+    <t>Sheet2</t>
+  </si>
+  <si>
+    <t>Sheet3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="60" formatCode="yyyy-mm-dd h:mm:ss AM/PM"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -112,12 +146,18 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,8 +170,20 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -141,16 +193,106 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
@@ -160,23 +302,83 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -199,8 +401,13 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ff5e88b1"/>
+      <rgbColor rgb="ffeef3f4"/>
+      <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa7a7a7"/>
+      <rgbColor rgb="ff525252"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1292,225 +1499,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="4" width="30.5547" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="0.05" customHeight="1">
+      <c r="B3" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+    </row>
+    <row r="7">
+      <c r="B7" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="4"/>
+      <c r="C10" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="4"/>
+      <c r="C12" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="4"/>
+      <c r="C14" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s" s="5">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D10" location="'Sheet1'!R1C1" tooltip="" display="Sheet1"/>
+    <hyperlink ref="D12" location="'Sheet2'!R1C1" tooltip="" display="Sheet2"/>
+    <hyperlink ref="D14" location="'Sheet3'!R1C1" tooltip="" display="Sheet3"/>
+  </hyperlinks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="9.5" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.85156" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85156" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.5" style="6" customWidth="1"/>
+    <col min="3" max="6" width="8.85156" style="6" customWidth="1"/>
+    <col min="7" max="7" width="5.85156" style="6" customWidth="1"/>
+    <col min="8" max="8" width="14.3516" style="6" customWidth="1"/>
+    <col min="9" max="9" width="28.5" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85156" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+      <c r="A1" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="13.55" customHeight="1">
+      <c r="A2" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s" s="7">
+        <v>16</v>
+      </c>
+      <c r="C2" s="8">
+        <v>44700</v>
+      </c>
+      <c r="D2" s="9">
+        <v>44723.432326388887</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.22</v>
+      </c>
+      <c r="F2" t="b" s="11">
+        <v>1</v>
+      </c>
+      <c r="G2" s="12">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s" s="7">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" t="s" s="7">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s" s="7">
+        <v>20</v>
+      </c>
+      <c r="C3" s="8">
+        <v>44660</v>
+      </c>
+      <c r="D3" s="9">
+        <v>44702.459872685184</v>
+      </c>
+      <c r="E3" s="10">
+        <v>3.546</v>
+      </c>
+      <c r="F3" t="b" s="11">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="G3" s="12">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s" s="7">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s" s="7">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8">
+        <v>44420</v>
+      </c>
+      <c r="D4" s="9">
+        <v>44958</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b" s="11">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="D2" t="b" s="3">
+      <c r="G4" s="12">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s" s="7">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s" s="13">
+        <v>16</v>
+      </c>
+      <c r="C5" s="14">
+        <v>44927</v>
+      </c>
+      <c r="D5" s="9">
+        <v>44906.480925925927</v>
+      </c>
+      <c r="E5" s="15">
+        <v>-1.24</v>
+      </c>
+      <c r="F5" t="b" s="16">
         <v>1</v>
       </c>
-      <c r="E2" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D3" t="b" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s" s="2">
+      <c r="G5" s="17">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s" s="13">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="D4" t="b" s="3">
+      <c r="I5" t="s" s="13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" t="s" s="18">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s" s="19">
+        <v>28</v>
+      </c>
+      <c r="C6" s="20">
+        <v>44620</v>
+      </c>
+      <c r="D6" s="9">
+        <v>44655.515659722223</v>
+      </c>
+      <c r="E6" s="21">
+        <v>1000</v>
+      </c>
+      <c r="F6" t="b" s="22">
         <v>1</v>
       </c>
-      <c r="E4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="D5" t="b" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="5" width="8.85156" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="G6" s="22">
+        <v>101</v>
+      </c>
+      <c r="H6" t="s" s="19">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s" s="23">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1529,79 +1793,170 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="8.85156" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="6" customWidth="1"/>
+    <col min="1" max="5" width="8.85156" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="5" width="8.85156" style="26" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.55" customHeight="1">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" ht="13.55" customHeight="1">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
